--- a/ig/sd-publication-030/eclaire-study-phase-concept-map.xlsx
+++ b/ig/sd-publication-030/eclaire-study-phase-concept-map.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-23T17:28:31+00:00</t>
+    <t>2024-02-25T14:18:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
